--- a/templates/sequence-based-metadata/sample_template.xlsx
+++ b/templates/sequence-based-metadata/sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-repositories\ega-metadata-schema\templates\sequence-based-metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DB2392-C08F-4AF0-B3DC-CE90C41D4DDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758CCD51-35EA-4C78-9DBA-742D7030ECDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
-  <si>
-    <t>Sample_alias</t>
-  </si>
-  <si>
-    <t>Center_name</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>NCBI_taxid</t>
-  </si>
-  <si>
-    <t>Scientific_name</t>
-  </si>
-  <si>
-    <t>Common_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Description</t>
   </si>
@@ -66,43 +48,130 @@
     <t>Units</t>
   </si>
   <si>
-    <t>TODO: UNIQUE NAME FOR SAMPLE</t>
-  </si>
-  <si>
-    <t>TODO: ACCOUNT CENTER_NAME ACRONYM</t>
-  </si>
-  <si>
-    <t>TODO: A SHORT INFORMATIVE DESCRIPTION OF THE SAMPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: PROVIDE NCBI TAXID FOR ORGANISM (e.g. 9606 for human) </t>
-  </si>
-  <si>
-    <t>TODO: SCIENTIFIC NAME AS APPEARS IN NCBI TAXONOMY FOR THE TAXON_ID (e.g. homo sapiens)</t>
-  </si>
-  <si>
-    <t>TODO: OPTIONAL COMMON NAME AS APPEARS IN NCBI TAXONOMY FOR THE TAXON_ID (e.g. human)</t>
-  </si>
-  <si>
-    <t>TODO: A LONGER DESCRIPTION OF SAMPLE AND HOW IT DIFFERS FROM OTHER SAMPLES</t>
-  </si>
-  <si>
-    <t>TODO: TAG VALUE</t>
-  </si>
-  <si>
-    <t>TODO: OPTIONAL UNIT</t>
-  </si>
-  <si>
-    <t>TODO: male/female/unknown</t>
-  </si>
-  <si>
-    <t>TODO: X/X, X/Y/, XXY, etc.</t>
-  </si>
-  <si>
-    <t>TODO: TAG VALUE, EFO term recommended</t>
+    <t>Broker_name</t>
+  </si>
+  <si>
+    <t>Sample_alias*</t>
+  </si>
+  <si>
+    <t>TODO: Scientific name of sample that distinguishes its taxonomy. Please use a name or synonym that is tracked in the INSDC Taxonomy database (e.g. "homo sapiens")</t>
+  </si>
+  <si>
+    <t>TODO: GenBank common name of the organism (e.g. "human")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: NCBI Taxonomy Identifier of the organism (e.g. "9606" for human) </t>
+  </si>
+  <si>
+    <t>Center_name*</t>
+  </si>
+  <si>
+    <t>Title*</t>
+  </si>
+  <si>
+    <t>NCBI_taxid*</t>
+  </si>
+  <si>
+    <t>Scientific_name*</t>
+  </si>
+  <si>
+    <t>Common_name*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: A description of the sample (e.g. its origin, its method of isolation, etc.) explaining how this sample is different from others if applicable. </t>
+  </si>
+  <si>
+    <t>TODO: Name of the custom attribute (e.g. age, height, BioSample IDs, additional notes, etc.)</t>
+  </si>
+  <si>
+    <t>TODO: Value of the custom attribute (e.g. "20", "SAME124633", etc.)</t>
+  </si>
+  <si>
+    <t>TODO: Optional scientific units (e.g. years, meters, EOF, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Optional scientific unit. </t>
+  </si>
+  <si>
+    <t>TODO: Optional scientific unit, use "Experimental Ontology Factor accession" if the phenotype's value is an EFO term.</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>EBI-TEST</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>Individual HG03464 corresponds to a female from MSL</t>
+  </si>
+  <si>
+    <t>HG03464</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>X/X</t>
+  </si>
+  <si>
+    <t>EFO:0000574</t>
   </si>
   <si>
     <t>Experimental Ontology Factor accession</t>
+  </si>
+  <si>
+    <t>MSL</t>
+  </si>
+  <si>
+    <t>ISO3</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>Super Population</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Sample HG03464 from the 1000 Genomes Project</t>
+  </si>
+  <si>
+    <t>Growth protocol</t>
+  </si>
+  <si>
+    <t>https://www.encodeproject.org/documents/2a32df77-1325-4a2d-af71-2f2b68eb9830/@@download/attachment/Snyder_MCF7%20Cell%20Growth%20Protocol.pdf</t>
+  </si>
+  <si>
+    <t>TODO: The center name (its acronym) of the submitter's account (e.g. EBI-TEST)</t>
+  </si>
+  <si>
+    <t>TODO: The center name (its acronym) of the broker (e.g. EGA)</t>
+  </si>
+  <si>
+    <t>TODO: Submitter designated name for the "Sample" (e.g. 'My_sample_HG3464'). The name must be unique within the submission account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: A short informative description (free-form string) of the sample. This text will be used to call out sample records in search results or in displays. </t>
+  </si>
+  <si>
+    <t>TODO: Subject ID of the sample (e.g. HG03464)</t>
+  </si>
+  <si>
+    <t>TODO: The gender of the sample (e.g. male/female/unknown)</t>
+  </si>
+  <si>
+    <t>TODO: Sex chomosomes of the sample (e.g. X/X, X/Y, XXY, etc.)</t>
+  </si>
+  <si>
+    <t>TODO: Phenotype definition, EFO term (e.g. "EFO:0000574") recommended. Search for your phenotype's ontology here: https://www.ebi.ac.uk/efo/</t>
   </si>
 </sst>
 </file>
@@ -118,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +218,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -159,7 +234,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
@@ -171,21 +283,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBC8EDE"/>
+      <color rgb="FFDFC9EF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -460,158 +640,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" style="24" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" style="15" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>12</v>
+      <c r="P2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9606</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="5"/>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:T1 AA1:XFD1">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:W1">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",U1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:Z1">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",X1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/templates/sequence-based-metadata/sample_template.xlsx
+++ b/templates/sequence-based-metadata/sample_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758CCD51-35EA-4C78-9DBA-742D7030ECDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4733ACEA-1480-4553-AD36-F299A20886A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -171,7 +171,7 @@
     <t>TODO: Sex chomosomes of the sample (e.g. X/X, X/Y, XXY, etc.)</t>
   </si>
   <si>
-    <t>TODO: Phenotype definition, EFO term (e.g. "EFO:0000574") recommended. Search for your phenotype's ontology here: https://www.ebi.ac.uk/efo/</t>
+    <t>TODO: Phenotype definition, EFO term (e.g. "EFO:0000574") recommended. Search for your phenotype's ontology here: https://www.ebi.ac.uk/ols/ontologies/efo</t>
   </si>
 </sst>
 </file>

--- a/templates/sequence-based-metadata/sample_template.xlsx
+++ b/templates/sequence-based-metadata/sample_template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4733ACEA-1480-4553-AD36-F299A20886A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4551044B-A8EB-495C-A538-88B9F634F543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Readme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Description</t>
   </si>
@@ -39,9 +40,6 @@
     <t>subject_id</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>phenotype</t>
   </si>
   <si>
@@ -54,15 +52,6 @@
     <t>Sample_alias*</t>
   </si>
   <si>
-    <t>TODO: Scientific name of sample that distinguishes its taxonomy. Please use a name or synonym that is tracked in the INSDC Taxonomy database (e.g. "homo sapiens")</t>
-  </si>
-  <si>
-    <t>TODO: GenBank common name of the organism (e.g. "human")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: NCBI Taxonomy Identifier of the organism (e.g. "9606" for human) </t>
-  </si>
-  <si>
     <t>Center_name*</t>
   </si>
   <si>
@@ -81,21 +70,6 @@
     <t xml:space="preserve">TODO: A description of the sample (e.g. its origin, its method of isolation, etc.) explaining how this sample is different from others if applicable. </t>
   </si>
   <si>
-    <t>TODO: Name of the custom attribute (e.g. age, height, BioSample IDs, additional notes, etc.)</t>
-  </si>
-  <si>
-    <t>TODO: Value of the custom attribute (e.g. "20", "SAME124633", etc.)</t>
-  </si>
-  <si>
-    <t>TODO: Optional scientific units (e.g. years, meters, EOF, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: Optional scientific unit. </t>
-  </si>
-  <si>
-    <t>TODO: Optional scientific unit, use "Experimental Ontology Factor accession" if the phenotype's value is an EFO term.</t>
-  </si>
-  <si>
     <t>EGA</t>
   </si>
   <si>
@@ -108,24 +82,15 @@
     <t>human</t>
   </si>
   <si>
-    <t>Individual HG03464 corresponds to a female from MSL</t>
-  </si>
-  <si>
     <t>HG03464</t>
   </si>
   <si>
     <t>female</t>
   </si>
   <si>
-    <t>X/X</t>
-  </si>
-  <si>
     <t>EFO:0000574</t>
   </si>
   <si>
-    <t>Experimental Ontology Factor accession</t>
-  </si>
-  <si>
     <t>MSL</t>
   </si>
   <si>
@@ -141,9 +106,6 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Sample HG03464 from the 1000 Genomes Project</t>
-  </si>
-  <si>
     <t>Growth protocol</t>
   </si>
   <si>
@@ -156,29 +118,151 @@
     <t>TODO: The center name (its acronym) of the broker (e.g. EGA)</t>
   </si>
   <si>
-    <t>TODO: Submitter designated name for the "Sample" (e.g. 'My_sample_HG3464'). The name must be unique within the submission account.</t>
-  </si>
-  <si>
     <t xml:space="preserve">TODO: A short informative description (free-form string) of the sample. This text will be used to call out sample records in search results or in displays. </t>
   </si>
   <si>
     <t>TODO: Subject ID of the sample (e.g. HG03464)</t>
   </si>
   <si>
-    <t>TODO: The gender of the sample (e.g. male/female/unknown)</t>
-  </si>
-  <si>
-    <t>TODO: Sex chomosomes of the sample (e.g. X/X, X/Y, XXY, etc.)</t>
-  </si>
-  <si>
-    <t>TODO: Phenotype definition, EFO term (e.g. "EFO:0000574") recommended. Search for your phenotype's ontology here: https://www.ebi.ac.uk/ols/ontologies/efo</t>
+    <t>TODO: Submitter designated name for the 'Sample' (e.g. 'My_sample_HG3464'). The name must be unique within the submission account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: NCBI Taxonomy Identifier of the organism (e.g. '9606' for human) </t>
+  </si>
+  <si>
+    <t>TODO: Scientific name of sample that distinguishes its taxonomy. Please use a name or synonym that is tracked in the INSDC Taxonomy database (e.g. 'homo sapiens')</t>
+  </si>
+  <si>
+    <t>TODO: GenBank common name of the organism (e.g. 'human')</t>
+  </si>
+  <si>
+    <t>TODO: Value of the custom attribute (e.g. '20', 'SAME124633', etc.)</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>TODO: specify the sex of the sample. Must be value from Controlled vocabulary: 'male', 'female', 'unknown'. 
+If you want to explicitly provide the sample’s combination of sexual chromosomes, you can give them as the &lt;VALUE&gt; of an additional &lt;SAMPLE_ATTRIBUTE&gt;, whose &lt;TAG&gt; would be 'sex chromosomes'</t>
+  </si>
+  <si>
+    <t>TODO: Phenotype definition. Make use of Ontologies like EFO terms (e.g. "EFO:0000574"). Provide the full compact URI (CURIE): use both the preffix (e.g. EFO) and identifier (e.g. 0000574). Search for the EFO associated to your phenotype here: https://www.ebi.ac.uk/efo/</t>
+  </si>
+  <si>
+    <t>TODO: Name of the custom attribute (e.g. age, height, BioSample, additional notes, etc.)</t>
+  </si>
+  <si>
+    <t>TODO: Optional scientific units (e.g. years, meters, etc.)</t>
+  </si>
+  <si>
+    <t>Example!_HG03464</t>
+  </si>
+  <si>
+    <t>Example!_Sample HG03464 from the 1000 Genomes Project</t>
+  </si>
+  <si>
+    <t>Example!_Individual HG03464 corresponds to a female from MSL</t>
+  </si>
+  <si>
+    <t>Provide your real metadata below this row (each row under this one will account for one metadata instance)</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Bright yellow</t>
+  </si>
+  <si>
+    <t>Other colours</t>
+  </si>
+  <si>
+    <t>Required attributes</t>
+  </si>
+  <si>
+    <t>No colour</t>
+  </si>
+  <si>
+    <t>Optional (highly recommended) attributes</t>
+  </si>
+  <si>
+    <t>Column headers' colour format</t>
+  </si>
+  <si>
+    <t>Dark grey</t>
+  </si>
+  <si>
+    <t>Ignore this column (based on multiple choice attributes)</t>
+  </si>
+  <si>
+    <t>4 onwards</t>
+  </si>
+  <si>
+    <t>Row number</t>
+  </si>
+  <si>
+    <t>Rows format</t>
+  </si>
+  <si>
+    <t>Column headers</t>
+  </si>
+  <si>
+    <t>Real data ceiling (put your real data beneath this row)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Real data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (all rows from 4 onwards will be transformed into XMLs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descriptive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> row (explains what type of data corresponds to each column)</t>
+    </r>
+  </si>
+  <si>
+    <t>Repeated blocks (each with their own colour): you can add or remove as many "whole" blocks as you want to fulfil your needs, but remember to always work with complete repetitions (e.g. TAG-VALUE-UNITS columns for an attribute)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,25 +270,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -220,12 +315,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -279,37 +392,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,11 +473,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -649,266 +852,266 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" style="24" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" style="15" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" style="20" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" style="12" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="4" customWidth="1"/>
+    <col min="25" max="25" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9606</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="18" t="s">
+      <c r="T4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="U4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="V4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2">
-        <v>9606</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="W4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -930,4 +1133,122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638DF5F0-2364-4EED-B931-D04182A4891F}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="36"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="36"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/templates/sequence-based-metadata/sample_template.xlsx
+++ b/templates/sequence-based-metadata/sample_template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-repositories\ega-metadata-schema\templates\sequence-based-metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DB2392-C08F-4AF0-B3DC-CE90C41D4DDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24848D0-402E-4F61-A728-879975195C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="sample" sheetId="1" r:id="rId1"/>
+    <sheet name="Readme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,25 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
-  <si>
-    <t>Sample_alias</t>
-  </si>
-  <si>
-    <t>Center_name</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>NCBI_taxid</t>
-  </si>
-  <si>
-    <t>Scientific_name</t>
-  </si>
-  <si>
-    <t>Common_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Description</t>
   </si>
@@ -57,59 +40,229 @@
     <t>subject_id</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>phenotype</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>TODO: UNIQUE NAME FOR SAMPLE</t>
-  </si>
-  <si>
-    <t>TODO: ACCOUNT CENTER_NAME ACRONYM</t>
-  </si>
-  <si>
-    <t>TODO: A SHORT INFORMATIVE DESCRIPTION OF THE SAMPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: PROVIDE NCBI TAXID FOR ORGANISM (e.g. 9606 for human) </t>
-  </si>
-  <si>
-    <t>TODO: SCIENTIFIC NAME AS APPEARS IN NCBI TAXONOMY FOR THE TAXON_ID (e.g. homo sapiens)</t>
-  </si>
-  <si>
-    <t>TODO: OPTIONAL COMMON NAME AS APPEARS IN NCBI TAXONOMY FOR THE TAXON_ID (e.g. human)</t>
-  </si>
-  <si>
-    <t>TODO: A LONGER DESCRIPTION OF SAMPLE AND HOW IT DIFFERS FROM OTHER SAMPLES</t>
-  </si>
-  <si>
-    <t>TODO: TAG VALUE</t>
-  </si>
-  <si>
-    <t>TODO: OPTIONAL UNIT</t>
-  </si>
-  <si>
-    <t>TODO: male/female/unknown</t>
-  </si>
-  <si>
-    <t>TODO: X/X, X/Y/, XXY, etc.</t>
-  </si>
-  <si>
-    <t>TODO: TAG VALUE, EFO term recommended</t>
-  </si>
-  <si>
-    <t>Experimental Ontology Factor accession</t>
+    <t>Broker_name</t>
+  </si>
+  <si>
+    <t>Sample_alias*</t>
+  </si>
+  <si>
+    <t>Center_name*</t>
+  </si>
+  <si>
+    <t>Title*</t>
+  </si>
+  <si>
+    <t>NCBI_taxid*</t>
+  </si>
+  <si>
+    <t>Scientific_name*</t>
+  </si>
+  <si>
+    <t>Common_name*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: A description of the sample (e.g. its origin, its method of isolation, etc.) explaining how this sample is different from others if applicable. </t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>EBI-TEST</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>HG03464</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>EFO:0000574</t>
+  </si>
+  <si>
+    <t>MSL</t>
+  </si>
+  <si>
+    <t>ISO3</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>Super Population</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Growth protocol</t>
+  </si>
+  <si>
+    <t>https://www.encodeproject.org/documents/2a32df77-1325-4a2d-af71-2f2b68eb9830/@@download/attachment/Snyder_MCF7%20Cell%20Growth%20Protocol.pdf</t>
+  </si>
+  <si>
+    <t>TODO: The center name (its acronym) of the submitter's account (e.g. EBI-TEST)</t>
+  </si>
+  <si>
+    <t>TODO: The center name (its acronym) of the broker (e.g. EGA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: A short informative description (free-form string) of the sample. This text will be used to call out sample records in search results or in displays. </t>
+  </si>
+  <si>
+    <t>TODO: Subject ID of the sample (e.g. HG03464)</t>
+  </si>
+  <si>
+    <t>TODO: Submitter designated name for the 'Sample' (e.g. 'My_sample_HG3464'). The name must be unique within the submission account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: NCBI Taxonomy Identifier of the organism (e.g. '9606' for human) </t>
+  </si>
+  <si>
+    <t>TODO: Scientific name of sample that distinguishes its taxonomy. Please use a name or synonym that is tracked in the INSDC Taxonomy database (e.g. 'homo sapiens')</t>
+  </si>
+  <si>
+    <t>TODO: GenBank common name of the organism (e.g. 'human')</t>
+  </si>
+  <si>
+    <t>TODO: Value of the custom attribute (e.g. '20', 'SAME124633', etc.)</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>TODO: specify the sex of the sample. Must be value from Controlled vocabulary: 'male', 'female', 'unknown'. 
+If you want to explicitly provide the sample’s combination of sexual chromosomes, you can give them as the &lt;VALUE&gt; of an additional &lt;SAMPLE_ATTRIBUTE&gt;, whose &lt;TAG&gt; would be 'sex chromosomes'</t>
+  </si>
+  <si>
+    <t>TODO: Phenotype definition. Make use of Ontologies like EFO terms (e.g. "EFO:0000574"). Provide the full compact URI (CURIE): use both the preffix (e.g. EFO) and identifier (e.g. 0000574). Search for the EFO associated to your phenotype here: https://www.ebi.ac.uk/efo/</t>
+  </si>
+  <si>
+    <t>TODO: Name of the custom attribute (e.g. age, height, BioSample, additional notes, etc.)</t>
+  </si>
+  <si>
+    <t>TODO: Optional scientific units (e.g. years, meters, etc.)</t>
+  </si>
+  <si>
+    <t>Example!_HG03464</t>
+  </si>
+  <si>
+    <t>Example!_Sample HG03464 from the 1000 Genomes Project</t>
+  </si>
+  <si>
+    <t>Example!_Individual HG03464 corresponds to a female from MSL</t>
+  </si>
+  <si>
+    <t>Provide your real metadata below this row (each row under this one will account for one metadata instance)</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Bright yellow</t>
+  </si>
+  <si>
+    <t>Other colours</t>
+  </si>
+  <si>
+    <t>Required attributes</t>
+  </si>
+  <si>
+    <t>No colour</t>
+  </si>
+  <si>
+    <t>Optional (highly recommended) attributes</t>
+  </si>
+  <si>
+    <t>Column headers' colour format</t>
+  </si>
+  <si>
+    <t>Dark grey</t>
+  </si>
+  <si>
+    <t>Ignore this column (based on multiple choice attributes)</t>
+  </si>
+  <si>
+    <t>4 onwards</t>
+  </si>
+  <si>
+    <t>Row number</t>
+  </si>
+  <si>
+    <t>Rows format</t>
+  </si>
+  <si>
+    <t>Column headers</t>
+  </si>
+  <si>
+    <t>Real data ceiling (put your real data beneath this row)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Real data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (all rows from 4 onwards will be transformed into XMLs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descriptive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> row (explains what type of data corresponds to each column)</t>
+    </r>
+  </si>
+  <si>
+    <t>Repeated blocks (each with their own colour): you can add or remove as many "whole" blocks as you want to fulfil your needs, but remember to always work with complete repetitions (e.g. TAG-VALUE-UNITS columns for an attribute)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,25 +270,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -149,8 +313,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -159,7 +347,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
@@ -167,25 +392,183 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBC8EDE"/>
+      <color rgb="FFDFC9EF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -460,158 +843,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" style="20" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" style="12" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" style="4" customWidth="1"/>
+    <col min="25" max="25" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="P2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9606</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="L4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="O4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="R4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="T4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="U4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="5"/>
+      <c r="W4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:T1 AA1:XFD1">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:W1">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",U1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:Z1">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",X1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638DF5F0-2364-4EED-B931-D04182A4891F}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="36"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="36"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/templates/sequence-based-metadata/sample_template.xlsx
+++ b/templates/sequence-based-metadata/sample_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4551044B-A8EB-495C-A538-88B9F634F543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24848D0-402E-4F61-A728-879975195C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample Data" sheetId="1" r:id="rId1"/>
+    <sheet name="sample" sheetId="1" r:id="rId1"/>
     <sheet name="Readme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
